--- a/大阪都構想分析.xlsx
+++ b/大阪都構想分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87f07f2de2aeae21/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87f07f2de2aeae21/ドキュメント/分析結果/大阪都構想/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{AAE0C367-3B0D-4F06-82EC-89E9DDCF85D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E1CDFB3-E3A1-4D39-AE72-7775B26C5A7C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{AAE0C367-3B0D-4F06-82EC-89E9DDCF85D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59B4D5AB-A3F7-481D-9838-70EC9A96AF57}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="420" windowWidth="21624" windowHeight="11868" xr2:uid="{390F0BEA-253A-422B-863E-05602C058211}"/>
+    <workbookView xWindow="3480" yWindow="456" windowWidth="16248" windowHeight="11352" xr2:uid="{390F0BEA-253A-422B-863E-05602C058211}"/>
   </bookViews>
   <sheets>
     <sheet name="データ一覧" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="135">
   <si>
     <t>鶴見区</t>
   </si>
@@ -947,19 +947,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>合併後区役所有無</t>
-    <rPh sb="0" eb="3">
-      <t>ガッペイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>クヤクショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新天王寺区</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
@@ -1097,6 +1084,22 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緯度（分）</t>
+  </si>
+  <si>
+    <t>合併後本庁舎有無</t>
+    <rPh sb="0" eb="3">
+      <t>ガッペイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホンチョウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウム</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1828,6 +1831,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,24 +1866,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2180,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A97883-2FF5-49BB-8CDC-23E2523F3E0F}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2198,200 +2201,207 @@
     <col min="12" max="12" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="66" t="s">
+      <c r="J1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="K1" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" t="s">
         <v>121</v>
       </c>
-      <c r="P1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>120</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>117</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>118</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="60">
         <v>38207</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="60">
         <v>29689</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="61">
         <f t="shared" ref="D2:D25" si="0">B2/(B2+C2)</f>
         <v>0.5627282903263815</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="61">
         <v>0.59</v>
       </c>
-      <c r="I2" s="68">
+      <c r="I2" s="62">
         <f>VLOOKUP(A2,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.23051721784362045</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="62">
         <f>VLOOKUP(A2,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.49914144280715872</v>
       </c>
-      <c r="K2" s="68">
+      <c r="K2" s="62">
         <f>VLOOKUP(A2,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.4858068641467953</v>
       </c>
-      <c r="L2" s="69">
-        <f>AVERAGE(Q2:T2)</f>
+      <c r="L2" s="63">
+        <f t="shared" ref="L2:L25" si="1">AVERAGE(R2:U2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="64">
         <f>HLOOKUP(A2,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>1.83</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="65">
         <f>HLOOKUP(A2,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>234.59016393442624</v>
       </c>
       <c r="O2">
+        <v>42.325000000000003</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2" s="57">
+      <c r="Q2" s="57">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
       </c>
       <c r="S2">
         <v>5</v>
       </c>
       <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="60">
         <v>29758</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="60">
         <v>26805</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="61">
         <f t="shared" si="0"/>
         <v>0.52610363665293569</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="61">
         <v>0.53</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="62">
         <f>VLOOKUP(A3,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.3075427284822434</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="62">
         <f>VLOOKUP(A3,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.42507978154278431</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="62">
         <f>VLOOKUP(A3,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.48100594523683254</v>
       </c>
-      <c r="L3" s="69">
-        <f>AVERAGE(Q3:T3)</f>
+      <c r="L3" s="63">
+        <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="64">
         <f>HLOOKUP(A3,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.1</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="65">
         <f>HLOOKUP(A3,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>208.88095238095238</v>
       </c>
       <c r="O3">
+        <v>42.078000000000003</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="P3" s="57">
+      <c r="Q3" s="57">
         <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
       </c>
       <c r="R3">
         <v>9</v>
@@ -2400,205 +2410,214 @@
         <v>9</v>
       </c>
       <c r="T3">
+        <v>9</v>
+      </c>
+      <c r="U3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="60">
         <v>22017</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="60">
         <v>19007</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="61">
         <f t="shared" si="0"/>
         <v>0.53668584243369732</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="61">
         <v>0.55600000000000005</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="62">
         <f>VLOOKUP(A4,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.23740771949241005</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="62">
         <f>VLOOKUP(A4,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.46798636700916829</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="62">
         <f>VLOOKUP(A4,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.4733942877265353</v>
       </c>
-      <c r="L4" s="69">
-        <f>AVERAGE(Q4:T4)</f>
+      <c r="L4" s="63">
+        <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="64">
         <f>HLOOKUP(A4,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.06</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="65">
         <f>HLOOKUP(A4,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>223.32524271844659</v>
       </c>
       <c r="O4">
+        <v>41.534999999999997</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="P4" s="57">
+      <c r="Q4" s="57">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>10</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>13</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>9</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="60">
         <v>20771</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="60">
         <v>21102</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="61">
         <f t="shared" si="0"/>
         <v>0.49604757242136938</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="61">
         <v>0.5</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="62">
         <f>VLOOKUP(A5,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.30713962300121533</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="62">
         <f>VLOOKUP(A5,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.41126706860805951</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="62">
         <f>VLOOKUP(A5,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.47379834616209515</v>
       </c>
-      <c r="L5" s="69">
-        <f>AVERAGE(Q5:T5)</f>
+      <c r="L5" s="63">
+        <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
-      <c r="M5" s="70">
+      <c r="M5" s="64">
         <f>HLOOKUP(A5,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="65">
         <f>HLOOKUP(A5,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>187.29545454545453</v>
       </c>
       <c r="O5">
+        <v>40.197000000000003</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="P5" s="57">
+      <c r="Q5" s="57">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>19</v>
-      </c>
-      <c r="R5">
-        <v>20</v>
       </c>
       <c r="S5">
         <v>20</v>
       </c>
       <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="60">
         <v>23123</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="60">
         <v>25894</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="61">
         <f t="shared" si="0"/>
         <v>0.47173429626456126</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="61">
         <v>0.45200000000000001</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="62">
         <f>VLOOKUP(A6,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.35720816488394891</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="62">
         <f>VLOOKUP(A6,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.39066303880853503</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="62">
         <f>VLOOKUP(A6,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.47372189603322357</v>
       </c>
-      <c r="L6" s="69">
-        <f>AVERAGE(Q6:T6)</f>
+      <c r="L6" s="63">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M6" s="70">
+      <c r="M6" s="64">
         <f>HLOOKUP(A6,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.16</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="65">
         <f>HLOOKUP(A6,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>199.51388888888889</v>
       </c>
       <c r="O6">
+        <v>43.273000000000003</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="P6" s="57">
+      <c r="Q6" s="57">
         <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>19</v>
       </c>
       <c r="R6">
         <v>19</v>
@@ -2609,275 +2628,287 @@
       <c r="T6">
         <v>19</v>
       </c>
+      <c r="U6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="60">
         <v>46976</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="60">
         <v>46121</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="61">
         <f t="shared" si="0"/>
         <v>0.50459198470412581</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="61">
         <v>0.505</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="62">
         <f>VLOOKUP(A7,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.30856663633281589</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="62">
         <f>VLOOKUP(A7,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.41986807748811922</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="62">
         <f>VLOOKUP(A7,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.47411214008291253</v>
       </c>
-      <c r="L7" s="69">
-        <f>AVERAGE(Q7:T7)</f>
+      <c r="L7" s="63">
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="64">
         <f>HLOOKUP(A7,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.25</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="65">
         <f>HLOOKUP(A7,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>187.82222222222222</v>
       </c>
       <c r="O7">
+        <v>42.19</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="P7" s="57">
+      <c r="Q7" s="57">
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>19</v>
-      </c>
-      <c r="R7">
-        <v>23</v>
       </c>
       <c r="S7">
         <v>23</v>
       </c>
       <c r="T7">
+        <v>23</v>
+      </c>
+      <c r="U7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="66" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="60">
         <v>29842</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="60">
         <v>28555</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="61">
         <f t="shared" si="0"/>
         <v>0.51101940168159321</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="61">
         <v>0.501</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="62">
         <f>VLOOKUP(A8,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.27891430412371132</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="62">
         <f>VLOOKUP(A8,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.42281464776632305</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="62">
         <f>VLOOKUP(A8,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.47584657789232532</v>
       </c>
-      <c r="L8" s="69">
-        <f>AVERAGE(Q8:T8)</f>
+      <c r="L8" s="63">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M8" s="70">
+      <c r="M8" s="64">
         <f>HLOOKUP(A8,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.52</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="65">
         <f>HLOOKUP(A8,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>175.95238095238096</v>
       </c>
       <c r="O8">
+        <v>42.256999999999998</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
-      <c r="P8" s="57">
+      <c r="Q8" s="57">
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>28</v>
-      </c>
-      <c r="R8">
-        <v>23</v>
       </c>
       <c r="S8">
         <v>23</v>
       </c>
       <c r="T8">
+        <v>23</v>
+      </c>
+      <c r="U8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="66" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="60">
         <v>22372</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="60">
         <v>23021</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="61">
         <f t="shared" si="0"/>
         <v>0.49285132068821186</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="61">
         <v>0.46800000000000003</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="62">
         <f>VLOOKUP(A9,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.46598035407070315</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="62">
         <f>VLOOKUP(A9,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.34289731209649071</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="62">
         <f>VLOOKUP(A9,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.57747377767911645</v>
       </c>
-      <c r="L9" s="69">
-        <f>AVERAGE(Q9:T9)</f>
+      <c r="L9" s="63">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="64">
         <f>HLOOKUP(A9,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>1.75</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="65">
         <f>HLOOKUP(A9,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>147.14285714285714</v>
       </c>
       <c r="O9">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
-      <c r="P9" s="57">
+      <c r="Q9" s="57">
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>14</v>
-      </c>
-      <c r="R9">
-        <v>12</v>
       </c>
       <c r="S9">
         <v>12</v>
       </c>
       <c r="T9">
+        <v>12</v>
+      </c>
+      <c r="U9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" s="66" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="60">
         <v>24766</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="60">
         <v>23814</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="61">
         <f t="shared" si="0"/>
         <v>0.50979827089337171</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="61">
         <v>0.54100000000000004</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="62">
         <f>VLOOKUP(A10,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.20369209401915492</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="62">
         <f>VLOOKUP(A10,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.50658269113916721</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="62">
         <f>VLOOKUP(A10,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.46844648489115653</v>
       </c>
-      <c r="L10" s="69">
-        <f>AVERAGE(Q10:T10)</f>
+      <c r="L10" s="63">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="M10" s="70">
+      <c r="M10" s="64">
         <f>HLOOKUP(A10,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>1.65</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="65">
         <f>HLOOKUP(A10,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>250.18181818181816</v>
       </c>
       <c r="O10">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="P10" s="57">
+      <c r="Q10" s="57">
         <v>0</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>9</v>
-      </c>
-      <c r="R10">
-        <v>8</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -2885,68 +2916,71 @@
       <c r="T10">
         <v>8</v>
       </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="60">
         <v>26824</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="60">
         <v>23026</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="61">
         <f t="shared" si="0"/>
         <v>0.53809428284854566</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="61">
         <v>0.57699999999999996</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="62">
         <f>VLOOKUP(A11,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.19538025588917193</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="62">
         <f>VLOOKUP(A11,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.49677991813836336</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="62">
         <f>VLOOKUP(A11,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.46743185352682448</v>
       </c>
-      <c r="L11" s="69">
-        <f>AVERAGE(Q11:T11)</f>
+      <c r="L11" s="63">
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="64">
         <f>HLOOKUP(A11,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>1.96</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="65">
         <f>HLOOKUP(A11,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>224.41326530612247</v>
       </c>
       <c r="O11">
+        <v>40.575000000000003</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="P11" s="57">
+      <c r="Q11" s="57">
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5</v>
-      </c>
-      <c r="R11">
-        <v>8</v>
       </c>
       <c r="S11">
         <v>8</v>
@@ -2954,68 +2988,71 @@
       <c r="T11">
         <v>8</v>
       </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="60">
         <v>15911</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="60">
         <v>18278</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="61">
         <f t="shared" si="0"/>
         <v>0.46538360291321768</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="61">
         <v>0.44</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="62">
         <f>VLOOKUP(A12,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.37821778998249589</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="62">
         <f>VLOOKUP(A12,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.37484543366896306</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="62">
         <f>VLOOKUP(A12,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.48656678068442777</v>
       </c>
-      <c r="L12" s="69">
-        <f>AVERAGE(Q12:T12)</f>
+      <c r="L12" s="63">
+        <f t="shared" si="1"/>
         <v>17.75</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="64">
         <f>HLOOKUP(A12,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.34</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="65">
         <f>HLOOKUP(A12,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>162.35042735042734</v>
       </c>
       <c r="O12">
+        <v>39.018000000000001</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
-      <c r="P12" s="57">
+      <c r="Q12" s="57">
         <v>0</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>14</v>
-      </c>
-      <c r="R12">
-        <v>19</v>
       </c>
       <c r="S12">
         <v>19</v>
@@ -3023,65 +3060,68 @@
       <c r="T12">
         <v>19</v>
       </c>
+      <c r="U12">
+        <v>19</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="60">
         <v>13294</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="60">
         <v>12435</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="61">
         <f t="shared" si="0"/>
         <v>0.51669322554316144</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="61">
         <v>0.52700000000000002</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="62">
         <f>VLOOKUP(A13,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.22798804517442936</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="62">
         <f>VLOOKUP(A13,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.46208574677986725</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="62">
         <f>VLOOKUP(A13,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.50525007273400513</v>
       </c>
-      <c r="L13" s="69">
-        <f>AVERAGE(Q13:T13)</f>
+      <c r="L13" s="63">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="64">
         <f>HLOOKUP(A13,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>1.61</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="65">
         <f>HLOOKUP(A13,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>216.42857142857142</v>
       </c>
       <c r="O13">
+        <v>39.56</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="P13" s="57">
+      <c r="Q13" s="57">
         <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -3090,208 +3130,217 @@
         <v>12</v>
       </c>
       <c r="T13">
+        <v>12</v>
+      </c>
+      <c r="U13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="60">
         <v>31150</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="60">
         <v>32838</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="61">
         <f t="shared" si="0"/>
         <v>0.48681002688003999</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="61">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="62">
         <f>VLOOKUP(A14,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.37402664748538406</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="62">
         <f>VLOOKUP(A14,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.3833942506335678</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="62">
         <f>VLOOKUP(A14,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.47880161591154308</v>
       </c>
-      <c r="L14" s="69">
-        <f>AVERAGE(Q14:T14)</f>
+      <c r="L14" s="63">
+        <f t="shared" si="1"/>
         <v>25.25</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="64">
         <f>HLOOKUP(A14,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.36</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="65">
         <f>HLOOKUP(A14,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>175.38135593220338</v>
       </c>
       <c r="O14">
+        <v>36.575000000000003</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="P14" s="57">
+      <c r="Q14" s="57">
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>26</v>
-      </c>
-      <c r="R14">
-        <v>23</v>
       </c>
       <c r="S14">
         <v>23</v>
       </c>
       <c r="T14">
+        <v>23</v>
+      </c>
+      <c r="U14">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="60">
         <v>36242</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="60">
         <v>44287</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="61">
         <f t="shared" si="0"/>
         <v>0.45004905065255996</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="61">
         <v>0.45700000000000002</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="62">
         <f>VLOOKUP(A15,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.33492166205855245</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="62">
         <f>VLOOKUP(A15,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.39246099443758131</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="62">
         <f>VLOOKUP(A15,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.46552411579766129</v>
       </c>
-      <c r="L15" s="69">
-        <f>AVERAGE(Q15:T15)</f>
+      <c r="L15" s="63">
+        <f t="shared" si="1"/>
         <v>23.75</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="64">
         <f>HLOOKUP(A15,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.15</v>
       </c>
-      <c r="N15" s="71">
+      <c r="N15" s="65">
         <f>HLOOKUP(A15,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>179.27906976744185</v>
       </c>
       <c r="O15">
+        <v>36.222000000000001</v>
+      </c>
+      <c r="P15">
         <v>0</v>
       </c>
-      <c r="P15" s="57">
+      <c r="Q15" s="57">
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>25</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>19</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>26</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="60">
         <v>43930</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="60">
         <v>52307</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="61">
         <f t="shared" si="0"/>
         <v>0.45647723848415889</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="61">
         <v>0.44700000000000001</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="62">
         <f>VLOOKUP(A16,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.34232302362467654</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="62">
         <f>VLOOKUP(A16,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.3901358627598297</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="62">
         <f>VLOOKUP(A16,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.47177352032723935</v>
       </c>
-      <c r="L16" s="69">
-        <f>AVERAGE(Q16:T16)</f>
+      <c r="L16" s="63">
+        <f t="shared" si="1"/>
         <v>15.25</v>
       </c>
-      <c r="M16" s="70">
+      <c r="M16" s="64">
         <f>HLOOKUP(A16,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.38</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="65">
         <f>HLOOKUP(A16,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>153.29831932773112</v>
       </c>
       <c r="O16">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
-      <c r="P16" s="57">
+      <c r="Q16" s="57">
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>16</v>
-      </c>
-      <c r="R16">
-        <v>15</v>
       </c>
       <c r="S16">
         <v>15</v>
@@ -3299,68 +3348,71 @@
       <c r="T16">
         <v>15</v>
       </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17" s="66" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="66">
+      <c r="B17" s="60">
         <v>20042</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="60">
         <v>21853</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="61">
         <f t="shared" si="0"/>
         <v>0.47838644229621674</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="61">
         <v>0.46800000000000003</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="62">
         <f>VLOOKUP(A17,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.25703095450164104</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="62">
         <f>VLOOKUP(A17,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.45016410644346566</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="62">
         <f>VLOOKUP(A17,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.46446393928671653</v>
       </c>
-      <c r="L17" s="69">
-        <f>AVERAGE(Q17:T17)</f>
+      <c r="L17" s="63">
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="64">
         <f>HLOOKUP(A17,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.06</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="65">
         <f>HLOOKUP(A17,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>237.45145631067959</v>
       </c>
       <c r="O17">
+        <v>39.466999999999999</v>
+      </c>
+      <c r="P17">
         <v>1</v>
       </c>
-      <c r="P17" s="57">
+      <c r="Q17" s="57">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>6</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -3368,68 +3420,71 @@
       <c r="T17">
         <v>3</v>
       </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18" s="66" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="60">
         <v>24142</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="60">
         <v>26085</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="61">
         <f t="shared" si="0"/>
         <v>0.48065781352658926</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="61">
         <v>0.46500000000000002</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="62">
         <f>VLOOKUP(A18,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.3776147785927737</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="62">
         <f>VLOOKUP(A18,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.36815306399658476</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="62">
         <f>VLOOKUP(A18,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.48008693289866883</v>
       </c>
-      <c r="L18" s="69">
-        <f>AVERAGE(Q18:T18)</f>
+      <c r="L18" s="63">
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M18" s="64">
         <f>HLOOKUP(A18,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.27</v>
       </c>
-      <c r="N18" s="71">
+      <c r="N18" s="65">
         <f>HLOOKUP(A18,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>152.59911894273128</v>
       </c>
       <c r="O18">
+        <v>39.218000000000004</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="P18" s="57">
+      <c r="Q18" s="57">
         <v>1</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>10</v>
-      </c>
-      <c r="R18">
-        <v>12</v>
       </c>
       <c r="S18">
         <v>12</v>
@@ -3437,68 +3492,71 @@
       <c r="T18">
         <v>12</v>
       </c>
+      <c r="U18">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A19" s="66" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="60">
         <v>28578</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="60">
         <v>34814</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="61">
         <f t="shared" si="0"/>
         <v>0.45081398283695101</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="61">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="62">
         <f>VLOOKUP(A19,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.31190534166644118</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="62">
         <f>VLOOKUP(A19,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.40964800735910822</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="62">
         <f>VLOOKUP(A19,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.46073789489822609</v>
       </c>
-      <c r="L19" s="69">
-        <f>AVERAGE(Q19:T19)</f>
+      <c r="L19" s="63">
+        <f t="shared" si="1"/>
         <v>15.25</v>
       </c>
-      <c r="M19" s="70">
+      <c r="M19" s="64">
         <f>HLOOKUP(A19,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.2200000000000002</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="65">
         <f>HLOOKUP(A19,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>213.53603603603602</v>
       </c>
       <c r="O19">
+        <v>38.316000000000003</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
-      <c r="P19" s="57">
+      <c r="Q19" s="57">
         <v>1</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>16</v>
-      </c>
-      <c r="R19">
-        <v>15</v>
       </c>
       <c r="S19">
         <v>15</v>
@@ -3506,65 +3564,68 @@
       <c r="T19">
         <v>15</v>
       </c>
+      <c r="U19">
+        <v>15</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A20" s="66" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="60">
         <v>32404</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="60">
         <v>36098</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="61">
         <f t="shared" si="0"/>
         <v>0.4730372835829611</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="61">
         <v>0.47699999999999998</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="62">
         <f>VLOOKUP(A20,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.34601049848172183</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="62">
         <f>VLOOKUP(A20,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.38693731511922602</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="62">
         <f>VLOOKUP(A20,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.46970113066608082</v>
       </c>
-      <c r="L20" s="69">
-        <f>AVERAGE(Q20:T20)</f>
+      <c r="L20" s="63">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="M20" s="70">
+      <c r="M20" s="64">
         <f>HLOOKUP(A20,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.23</v>
       </c>
-      <c r="N20" s="71">
+      <c r="N20" s="65">
         <f>HLOOKUP(A20,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>178.25112107623318</v>
       </c>
       <c r="O20">
+        <v>37.322000000000003</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
-      <c r="P20" s="57">
+      <c r="Q20" s="57">
         <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>21</v>
       </c>
       <c r="R20">
         <v>21</v>
@@ -3575,271 +3636,283 @@
       <c r="T20">
         <v>21</v>
       </c>
+      <c r="U20">
+        <v>21</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A21" s="66" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="60">
         <v>15741</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="60">
         <v>17866</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="61">
         <f t="shared" si="0"/>
         <v>0.46838456273990536</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="61">
         <v>0.48299999999999998</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="62">
         <f>VLOOKUP(A21,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.33190997379374132</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="62">
         <f>VLOOKUP(A21,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.4024818868506243</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="62">
         <f>VLOOKUP(A21,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.48846924618467702</v>
       </c>
-      <c r="L21" s="69">
-        <f>AVERAGE(Q21:T21)</f>
+      <c r="L21" s="63">
+        <f t="shared" si="1"/>
         <v>23.25</v>
       </c>
-      <c r="M21" s="70">
+      <c r="M21" s="64">
         <f>HLOOKUP(A21,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.29</v>
       </c>
-      <c r="N21" s="71">
+      <c r="N21" s="65">
         <f>HLOOKUP(A21,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>162.70742358078601</v>
       </c>
       <c r="O21">
+        <v>40.98</v>
+      </c>
+      <c r="P21">
         <v>0</v>
       </c>
-      <c r="P21" s="57">
+      <c r="Q21" s="57">
         <v>0</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>21</v>
-      </c>
-      <c r="R21">
-        <v>23</v>
       </c>
       <c r="S21">
         <v>23</v>
       </c>
       <c r="T21">
+        <v>23</v>
+      </c>
+      <c r="U21">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A22" s="66" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="66">
+      <c r="B22" s="60">
         <v>18491</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="60">
         <v>24527</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="61">
         <f t="shared" si="0"/>
         <v>0.42984332140034404</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="61">
         <v>0.47799999999999998</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="62">
         <f>VLOOKUP(A22,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.3335776397515528</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="62">
         <f>VLOOKUP(A22,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.40014906832298136</v>
       </c>
-      <c r="K22" s="68">
+      <c r="K22" s="62">
         <f>VLOOKUP(A22,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.48645962732919257</v>
       </c>
-      <c r="L22" s="69">
-        <f>AVERAGE(Q22:T22)</f>
+      <c r="L22" s="63">
+        <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
-      <c r="M22" s="70">
+      <c r="M22" s="64">
         <f>HLOOKUP(A22,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.1800000000000002</v>
       </c>
-      <c r="N22" s="71">
+      <c r="N22" s="65">
         <f>HLOOKUP(A22,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>179.01376146788991</v>
       </c>
       <c r="O22">
+        <v>39.835000000000001</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
-      <c r="P22" s="57">
+      <c r="Q22" s="57">
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>32</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>25</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>23</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A23" s="66" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="60">
         <v>22971</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="60">
         <v>25511</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="61">
         <f t="shared" si="0"/>
         <v>0.4738047110267728</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="61">
         <v>0.45500000000000002</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="62">
         <f>VLOOKUP(A23,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.30788195275197389</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="62">
         <f>VLOOKUP(A23,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.40619571210119526</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="62">
         <f>VLOOKUP(A23,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.49060136688477179</v>
       </c>
-      <c r="L23" s="69">
-        <f>AVERAGE(Q23:T23)</f>
+      <c r="L23" s="63">
+        <f t="shared" si="1"/>
         <v>34.25</v>
       </c>
-      <c r="M23" s="70">
+      <c r="M23" s="64">
         <f>HLOOKUP(A23,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>2.35</v>
       </c>
-      <c r="N23" s="71">
+      <c r="N23" s="65">
         <f>HLOOKUP(A23,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>187.10638297872339</v>
       </c>
       <c r="O23">
+        <v>42.683</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="P23" s="57">
+      <c r="Q23" s="57">
         <v>0</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>28</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>39</v>
-      </c>
-      <c r="S23">
-        <v>35</v>
       </c>
       <c r="T23">
         <v>35</v>
       </c>
+      <c r="U23">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="60">
         <v>47415</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="60">
         <v>38688</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="61">
         <f t="shared" si="0"/>
         <v>0.55067767673600221</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="61">
         <v>0.55500000000000005</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="62">
         <f>VLOOKUP(A24,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.28426036791117881</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="62">
         <f>VLOOKUP(A24,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.43348753673669316</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="62">
         <f>VLOOKUP(A24,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.49697398497877437</v>
       </c>
-      <c r="L24" s="69">
-        <f>AVERAGE(Q24:T24)</f>
+      <c r="L24" s="63">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="70">
+      <c r="M24" s="64">
         <f>HLOOKUP(A24,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>1.97</v>
       </c>
-      <c r="N24" s="71">
+      <c r="N24" s="65">
         <f>HLOOKUP(A24,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>214.11167512690352</v>
       </c>
       <c r="O24">
+        <v>43.26</v>
+      </c>
+      <c r="P24">
         <v>1</v>
       </c>
-      <c r="P24" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="Q24" s="57">
         <v>0</v>
       </c>
       <c r="R24">
@@ -3851,73 +3924,79 @@
       <c r="T24">
         <v>0</v>
       </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="66">
+      <c r="B25" s="60">
         <v>40862</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="60">
         <v>40375</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="61">
         <f t="shared" si="0"/>
         <v>0.50299740266134885</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="61">
         <v>0.51200000000000001</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I25" s="62">
         <f>VLOOKUP(A25,'2020年10月推計人口'!$A$5:$D$28,2,FALSE)</f>
         <v>0.30267554752765863</v>
       </c>
-      <c r="J25" s="68">
+      <c r="J25" s="62">
         <f>VLOOKUP(A25,'2020年10月推計人口'!$A$5:$D$28,3,FALSE)</f>
         <v>0.40982727477986003</v>
       </c>
-      <c r="K25" s="68">
+      <c r="K25" s="62">
         <f>VLOOKUP(A25,'2020年10月推計人口'!$A$5:$D$28,4,FALSE)</f>
         <v>0.49140325129826146</v>
       </c>
-      <c r="L25" s="69">
-        <f>AVERAGE(Q25:T25)</f>
+      <c r="L25" s="63">
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="M25" s="70">
+      <c r="M25" s="64">
         <f>HLOOKUP(A25,世帯年収!$D$1:$AA$15,15,FALSE)</f>
         <v>1.99</v>
       </c>
-      <c r="N25" s="71">
+      <c r="N25" s="65">
         <f>HLOOKUP(A25,世帯年収!$D$1:$AA$16,16,FALSE)</f>
         <v>184.12060301507537</v>
       </c>
       <c r="O25">
+        <v>44.47</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
-      <c r="P25" s="57">
+      <c r="Q25" s="57">
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>8</v>
-      </c>
-      <c r="R25">
-        <v>7</v>
       </c>
       <c r="S25">
         <v>7</v>
       </c>
       <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25">
         <v>7</v>
       </c>
     </row>
@@ -3985,92 +4064,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="60"/>
+      <c r="A1" s="66"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="50"/>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="63" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="71"/>
+      <c r="BS1" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="65"/>
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="70"/>
+      <c r="BV1" s="70"/>
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="70"/>
+      <c r="BY1" s="70"/>
+      <c r="BZ1" s="70"/>
+      <c r="CA1" s="71"/>
     </row>
     <row r="2" spans="1:79" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="61"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="51"/>
@@ -4201,7 +4280,7 @@
       <c r="CA2" s="5"/>
     </row>
     <row r="3" spans="1:79" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="62"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="45" t="s">
         <v>106</v>
       </c>
@@ -10510,10 +10589,10 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -11594,7 +11673,7 @@
     </row>
     <row r="14" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="59">
         <f>SUMPRODUCT($A$2:$A$13,D2:D13)</f>
@@ -11695,7 +11774,7 @@
     </row>
     <row r="15" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="59">
         <v>1.83</v>
@@ -11772,7 +11851,7 @@
     </row>
     <row r="16" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="59">
         <f>D14/D15</f>
